--- a/3_Carbon_simulation/input/PM_result.xlsx
+++ b/3_Carbon_simulation/input/PM_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06aadffa795f0538/바탕 화면/논문 관련/github/Figure 4A - PM simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06aadffa795f0538/바탕 화면/논문 관련/github/3_Carbon_simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{70235077-619A-49AF-BF56-395E39D42282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6822DB9E-1EFB-443C-A339-5B33A7204119}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{70235077-619A-49AF-BF56-395E39D42282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555CB401-F2A5-450E-BD62-8AE132686241}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{41E63EB8-C6A6-461B-9D99-3111FC130EB2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="346">
   <si>
     <t>metabolites id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,9 +574,6 @@
   </si>
   <si>
     <t>G07 (L-Homoserine)</t>
-  </si>
-  <si>
-    <t>G08 (L-Hydroxyproline)</t>
   </si>
   <si>
     <t>G09 (L-Isoleucine)</t>
@@ -1090,6 +1087,18 @@
   </si>
   <si>
     <t>gal14lac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G08 (L-Hydroxyproline)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro__L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1518,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B649DB8-5189-416A-BB38-08AAB6E2370C}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1533,13 +1542,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1547,10 +1556,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1558,10 +1567,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1569,10 +1578,10 @@
         <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1580,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1591,10 +1600,10 @@
         <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1602,10 +1611,10 @@
         <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1613,10 +1622,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1624,10 +1633,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1635,10 +1644,10 @@
         <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1646,10 +1655,10 @@
         <v>84</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1657,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1668,10 +1677,10 @@
         <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1679,10 +1688,10 @@
         <v>86</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1690,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1701,10 +1710,10 @@
         <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1712,10 +1721,10 @@
         <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1723,10 +1732,10 @@
         <v>89</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1734,10 +1743,10 @@
         <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1745,10 +1754,10 @@
         <v>91</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1756,10 +1765,10 @@
         <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1767,10 +1776,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1778,10 +1787,10 @@
         <v>93</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1789,10 +1798,10 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1800,10 +1809,10 @@
         <v>95</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1811,10 +1820,10 @@
         <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1822,10 +1831,10 @@
         <v>97</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1833,10 +1842,10 @@
         <v>98</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1844,10 +1853,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1855,10 +1864,10 @@
         <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1866,10 +1875,10 @@
         <v>100</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1877,10 +1886,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1888,10 +1897,10 @@
         <v>101</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1899,10 +1908,10 @@
         <v>102</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1910,10 +1919,10 @@
         <v>103</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1921,10 +1930,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1932,10 +1941,10 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1943,10 +1952,10 @@
         <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1954,10 +1963,10 @@
         <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1965,10 +1974,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1976,10 +1985,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1987,10 +1996,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1998,10 +2007,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2009,10 +2018,10 @@
         <v>107</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2020,10 +2029,10 @@
         <v>108</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2031,10 +2040,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2042,10 +2051,10 @@
         <v>13</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2053,10 +2062,10 @@
         <v>14</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2064,10 +2073,10 @@
         <v>109</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2075,10 +2084,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2086,10 +2095,10 @@
         <v>111</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2097,10 +2106,10 @@
         <v>112</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2108,10 +2117,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2119,10 +2128,10 @@
         <v>16</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2130,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2141,10 +2150,10 @@
         <v>113</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2152,10 +2161,10 @@
         <v>18</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2163,10 +2172,10 @@
         <v>19</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2174,10 +2183,10 @@
         <v>114</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2185,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2196,10 +2205,10 @@
         <v>21</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2207,10 +2216,10 @@
         <v>115</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2218,10 +2227,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2229,10 +2238,10 @@
         <v>116</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2240,10 +2249,10 @@
         <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2251,10 +2260,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2262,10 +2271,10 @@
         <v>25</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2273,10 +2282,10 @@
         <v>26</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2284,10 +2293,10 @@
         <v>27</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2295,10 +2304,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2306,10 +2315,10 @@
         <v>117</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2317,10 +2326,10 @@
         <v>29</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2328,10 +2337,10 @@
         <v>30</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2339,10 +2348,10 @@
         <v>118</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2350,10 +2359,10 @@
         <v>119</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2361,10 +2370,10 @@
         <v>120</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2372,10 +2381,10 @@
         <v>121</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2383,10 +2392,10 @@
         <v>31</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2394,10 +2403,10 @@
         <v>32</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2405,10 +2414,10 @@
         <v>122</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2416,10 +2425,10 @@
         <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2427,10 +2436,10 @@
         <v>34</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2438,10 +2447,10 @@
         <v>123</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2449,10 +2458,10 @@
         <v>124</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2460,10 +2469,10 @@
         <v>35</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2471,10 +2480,10 @@
         <v>125</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2482,10 +2491,10 @@
         <v>126</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2493,10 +2502,10 @@
         <v>36</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2504,10 +2513,10 @@
         <v>127</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2515,10 +2524,10 @@
         <v>128</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2526,10 +2535,10 @@
         <v>37</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2537,10 +2546,10 @@
         <v>38</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2548,10 +2557,10 @@
         <v>129</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2559,10 +2568,10 @@
         <v>130</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2570,10 +2579,10 @@
         <v>131</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2581,10 +2590,10 @@
         <v>132</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2592,10 +2601,10 @@
         <v>39</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2603,10 +2612,10 @@
         <v>40</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2614,10 +2623,10 @@
         <v>41</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2625,10 +2634,10 @@
         <v>42</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2636,10 +2645,10 @@
         <v>43</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2647,10 +2656,10 @@
         <v>44</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2658,10 +2667,10 @@
         <v>45</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2669,10 +2678,10 @@
         <v>46</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2680,10 +2689,10 @@
         <v>47</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2691,10 +2700,10 @@
         <v>48</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2702,10 +2711,10 @@
         <v>49</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2713,10 +2722,10 @@
         <v>133</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2724,10 +2733,10 @@
         <v>134</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2735,10 +2744,10 @@
         <v>135</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2746,10 +2755,10 @@
         <v>50</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2757,10 +2766,10 @@
         <v>136</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2768,10 +2777,10 @@
         <v>137</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2779,10 +2788,10 @@
         <v>138</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2790,10 +2799,10 @@
         <v>51</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2801,10 +2810,10 @@
         <v>139</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2812,10 +2821,10 @@
         <v>140</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2823,10 +2832,10 @@
         <v>141</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2834,10 +2843,10 @@
         <v>142</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2845,10 +2854,10 @@
         <v>52</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2856,10 +2865,10 @@
         <v>143</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2867,10 +2876,10 @@
         <v>144</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2878,10 +2887,10 @@
         <v>145</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2889,10 +2898,10 @@
         <v>53</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2900,10 +2909,10 @@
         <v>146</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2911,10 +2920,10 @@
         <v>147</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2922,10 +2931,10 @@
         <v>148</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2933,10 +2942,10 @@
         <v>149</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2944,10 +2953,10 @@
         <v>150</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2955,10 +2964,10 @@
         <v>151</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2966,10 +2975,10 @@
         <v>54</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2977,10 +2986,10 @@
         <v>152</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2988,10 +2997,10 @@
         <v>153</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2999,10 +3008,10 @@
         <v>55</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3010,10 +3019,10 @@
         <v>154</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3021,10 +3030,10 @@
         <v>56</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3032,10 +3041,10 @@
         <v>155</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3043,10 +3052,10 @@
         <v>57</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3054,10 +3063,10 @@
         <v>58</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3065,10 +3074,10 @@
         <v>156</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3076,10 +3085,10 @@
         <v>157</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3087,10 +3096,10 @@
         <v>158</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3098,10 +3107,10 @@
         <v>159</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3109,10 +3118,10 @@
         <v>160</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3120,10 +3129,10 @@
         <v>161</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3131,10 +3140,10 @@
         <v>59</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3142,10 +3151,10 @@
         <v>162</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3153,10 +3162,10 @@
         <v>163</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3164,10 +3173,10 @@
         <v>60</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3175,10 +3184,10 @@
         <v>164</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3186,10 +3195,10 @@
         <v>165</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3197,10 +3206,10 @@
         <v>61</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3208,10 +3217,10 @@
         <v>166</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3219,10 +3228,10 @@
         <v>62</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3230,10 +3239,10 @@
         <v>167</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3241,10 +3250,10 @@
         <v>168</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3252,10 +3261,10 @@
         <v>63</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3263,10 +3272,10 @@
         <v>64</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3274,10 +3283,10 @@
         <v>65</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3285,10 +3294,10 @@
         <v>66</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3296,10 +3305,10 @@
         <v>169</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3307,10 +3316,10 @@
         <v>170</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3318,10 +3327,10 @@
         <v>67</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3329,10 +3338,10 @@
         <v>171</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3340,10 +3349,10 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3351,10 +3360,10 @@
         <v>172</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3362,10 +3371,10 @@
         <v>173</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3373,10 +3382,10 @@
         <v>69</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3384,10 +3393,10 @@
         <v>174</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3395,10 +3404,10 @@
         <v>175</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3406,10 +3415,10 @@
         <v>176</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3417,10 +3426,10 @@
         <v>70</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3428,10 +3437,10 @@
         <v>177</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3439,120 +3448,120 @@
         <v>178</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>179</v>
+        <v>344</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3560,32 +3569,32 @@
         <v>71</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3593,10 +3602,10 @@
         <v>72</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3604,10 +3613,10 @@
         <v>73</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3615,10 +3624,10 @@
         <v>74</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3626,153 +3635,153 @@
         <v>75</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/3_Carbon_simulation/input/PM_result.xlsx
+++ b/3_Carbon_simulation/input/PM_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06aadffa795f0538/바탕 화면/논문 관련/github/3_Carbon_simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{70235077-619A-49AF-BF56-395E39D42282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555CB401-F2A5-450E-BD62-8AE132686241}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{70235077-619A-49AF-BF56-395E39D42282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2DD336-AD10-4AE5-929D-A9BF10B4F676}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{41E63EB8-C6A6-461B-9D99-3111FC130EB2}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>H10 (2,3-Butanediol)</t>
   </si>
   <si>
-    <t>H11 (2,3-Butanedione)</t>
-  </si>
-  <si>
     <t>H12 (3-Hydroxy-2-Butanone)</t>
   </si>
   <si>
@@ -1011,9 +1008,6 @@
     <t>btd_RR</t>
   </si>
   <si>
-    <t>diact</t>
-  </si>
-  <si>
     <t>styrene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,10 +1017,6 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toluen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1099,6 +1089,18 @@
   </si>
   <si>
     <t>pro__L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H11 (2,3-Butanedione)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B649DB8-5189-416A-BB38-08AAB6E2370C}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1542,46 +1544,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1589,76 +1591,76 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1666,32 +1668,32 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1699,76 +1701,76 @@
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1776,76 +1778,76 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1853,32 +1855,32 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1886,43 +1888,43 @@
         <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1930,43 +1932,43 @@
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1974,10 +1976,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1985,10 +1987,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1996,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2007,32 +2009,32 @@
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2040,10 +2042,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2051,10 +2053,10 @@
         <v>13</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2062,54 +2064,54 @@
         <v>14</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2117,10 +2119,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2128,10 +2130,10 @@
         <v>16</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2139,21 +2141,21 @@
         <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2161,10 +2163,10 @@
         <v>18</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2172,21 +2174,21 @@
         <v>19</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2194,10 +2196,10 @@
         <v>20</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2205,21 +2207,21 @@
         <v>21</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2227,21 +2229,21 @@
         <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2249,10 +2251,10 @@
         <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2260,10 +2262,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2271,10 +2273,10 @@
         <v>25</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2282,10 +2284,10 @@
         <v>26</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2293,10 +2295,10 @@
         <v>27</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2304,21 +2306,21 @@
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2326,10 +2328,10 @@
         <v>29</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2337,54 +2339,54 @@
         <v>30</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2392,10 +2394,10 @@
         <v>31</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2403,21 +2405,21 @@
         <v>32</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2425,10 +2427,10 @@
         <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2436,32 +2438,32 @@
         <v>34</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2469,32 +2471,32 @@
         <v>35</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2502,32 +2504,32 @@
         <v>36</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2535,10 +2537,10 @@
         <v>37</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2546,54 +2548,54 @@
         <v>38</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2601,10 +2603,10 @@
         <v>39</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2612,10 +2614,10 @@
         <v>40</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2623,10 +2625,10 @@
         <v>41</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2634,10 +2636,10 @@
         <v>42</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2645,10 +2647,10 @@
         <v>43</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2656,10 +2658,10 @@
         <v>44</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2667,10 +2669,10 @@
         <v>45</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2678,10 +2680,10 @@
         <v>46</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2689,10 +2691,10 @@
         <v>47</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2700,10 +2702,10 @@
         <v>48</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2711,43 +2713,43 @@
         <v>49</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2755,43 +2757,43 @@
         <v>50</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2799,54 +2801,54 @@
         <v>51</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2854,43 +2856,43 @@
         <v>52</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2898,76 +2900,76 @@
         <v>53</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2975,32 +2977,32 @@
         <v>54</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3008,21 +3010,21 @@
         <v>55</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3030,21 +3032,21 @@
         <v>56</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3052,10 +3054,10 @@
         <v>57</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3063,76 +3065,76 @@
         <v>58</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3140,32 +3142,32 @@
         <v>59</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3173,32 +3175,32 @@
         <v>60</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3206,21 +3208,21 @@
         <v>61</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3228,32 +3230,32 @@
         <v>62</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3261,10 +3263,10 @@
         <v>63</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3272,10 +3274,10 @@
         <v>64</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3283,10 +3285,10 @@
         <v>65</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3294,32 +3296,32 @@
         <v>66</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3327,21 +3329,21 @@
         <v>67</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3349,32 +3351,32 @@
         <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3382,43 +3384,43 @@
         <v>69</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3426,142 +3428,142 @@
         <v>70</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3569,32 +3571,32 @@
         <v>71</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3602,10 +3604,10 @@
         <v>72</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3613,175 +3615,175 @@
         <v>73</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/3_Carbon_simulation/input/PM_result.xlsx
+++ b/3_Carbon_simulation/input/PM_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06aadffa795f0538/바탕 화면/논문 관련/github/3_Carbon_simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{70235077-619A-49AF-BF56-395E39D42282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2DD336-AD10-4AE5-929D-A9BF10B4F676}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{70235077-619A-49AF-BF56-395E39D42282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{688BB419-4A05-45EF-BB18-8E5A6320EC5E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{41E63EB8-C6A6-461B-9D99-3111FC130EB2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="348">
   <si>
     <t>metabolites id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>E03 (Citraconic Acid)</t>
-  </si>
-  <si>
-    <t>E06 (2-Hydroxy-Benzoic Acid)</t>
   </si>
   <si>
     <t>E09 (γ-Hydroxy-Butyric Acid)</t>
@@ -1101,6 +1098,17 @@
   </si>
   <si>
     <t>diact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5oxpro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4hbz</t>
+  </si>
+  <si>
+    <t>E06 (2-Hydroxy-Benzoic Acid)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B649DB8-5189-416A-BB38-08AAB6E2370C}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1544,46 +1552,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1591,76 +1599,76 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1668,32 +1676,32 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1701,76 +1709,76 @@
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1778,76 +1786,76 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1855,32 +1863,32 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1888,43 +1896,43 @@
         <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1932,43 +1940,43 @@
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1976,10 +1984,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1987,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1998,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2009,32 +2017,32 @@
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2042,10 +2050,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2053,10 +2061,10 @@
         <v>13</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2064,54 +2072,54 @@
         <v>14</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2119,10 +2127,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2130,10 +2138,10 @@
         <v>16</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2141,21 +2149,21 @@
         <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2163,10 +2171,10 @@
         <v>18</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2174,21 +2182,21 @@
         <v>19</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2196,10 +2204,10 @@
         <v>20</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2207,21 +2215,21 @@
         <v>21</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2229,21 +2237,21 @@
         <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2251,10 +2259,10 @@
         <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2262,10 +2270,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2273,10 +2281,10 @@
         <v>25</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2284,10 +2292,10 @@
         <v>26</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2295,10 +2303,10 @@
         <v>27</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2306,21 +2314,21 @@
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2328,10 +2336,10 @@
         <v>29</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2339,54 +2347,54 @@
         <v>30</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2394,10 +2402,10 @@
         <v>31</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2405,21 +2413,21 @@
         <v>32</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2427,10 +2435,10 @@
         <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2438,32 +2446,32 @@
         <v>34</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2471,32 +2479,32 @@
         <v>35</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2504,32 +2512,32 @@
         <v>36</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2537,10 +2545,10 @@
         <v>37</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2548,54 +2556,54 @@
         <v>38</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2603,10 +2611,10 @@
         <v>39</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2614,10 +2622,10 @@
         <v>40</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2625,10 +2633,10 @@
         <v>41</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2636,10 +2644,10 @@
         <v>42</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2647,10 +2655,10 @@
         <v>43</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2658,10 +2666,10 @@
         <v>44</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2669,10 +2677,10 @@
         <v>45</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2680,10 +2688,10 @@
         <v>46</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2691,10 +2699,10 @@
         <v>47</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2702,10 +2710,10 @@
         <v>48</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2713,43 +2721,43 @@
         <v>49</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2757,43 +2765,43 @@
         <v>50</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2801,54 +2809,54 @@
         <v>51</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2856,43 +2864,43 @@
         <v>52</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2900,76 +2908,76 @@
         <v>53</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2977,32 +2985,32 @@
         <v>54</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3010,21 +3018,21 @@
         <v>55</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3032,21 +3040,21 @@
         <v>56</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3054,10 +3062,10 @@
         <v>57</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3065,76 +3073,76 @@
         <v>58</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3142,648 +3150,648 @@
         <v>59</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="C175" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="C190" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
